--- a/server/docs/TestCfgExcel_com.wan37.config.entity.TestCfgExcel.xlsx
+++ b/server/docs/TestCfgExcel_com.wan37.config.entity.TestCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6636DA1-929E-4982-9764-688DE0EE8004}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93735E0-5863-439E-83BF-22D59F87016D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>linda2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,53 +372,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.2</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
